--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_middellaag.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_middellaag.xlsx
@@ -406,25 +406,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1150</v>
+        <v>1157.387157691246</v>
       </c>
       <c r="C2">
-        <v>978</v>
+        <v>981.181658104533</v>
       </c>
       <c r="D2">
-        <v>610</v>
+        <v>605.862092896851</v>
       </c>
       <c r="E2">
-        <v>1287</v>
+        <v>1292.426469196052</v>
       </c>
       <c r="F2">
-        <v>1157</v>
+        <v>1165.712211379992</v>
       </c>
       <c r="G2">
-        <v>1156</v>
+        <v>1157.793623994623</v>
       </c>
       <c r="H2">
-        <v>1288</v>
+        <v>1295.177072832771</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -432,25 +432,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1200</v>
+        <v>1208.207581561454</v>
       </c>
       <c r="C3">
-        <v>996</v>
+        <v>1001.504143663945</v>
       </c>
       <c r="D3">
-        <v>572</v>
+        <v>576.5620703043116</v>
       </c>
       <c r="E3">
-        <v>1309</v>
+        <v>1316.046994716525</v>
       </c>
       <c r="F3">
-        <v>1204</v>
+        <v>1212.959743826953</v>
       </c>
       <c r="G3">
-        <v>1160</v>
+        <v>1167.018325727053</v>
       </c>
       <c r="H3">
-        <v>1311</v>
+        <v>1317.500688659987</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -458,25 +458,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1057</v>
+        <v>1063.700906389054</v>
       </c>
       <c r="C4">
-        <v>1038</v>
+        <v>1039.496240544647</v>
       </c>
       <c r="D4">
-        <v>344</v>
+        <v>347.2708387582935</v>
       </c>
       <c r="E4">
-        <v>1255</v>
+        <v>1258.863885985375</v>
       </c>
       <c r="F4">
-        <v>1066</v>
+        <v>1073.324544809446</v>
       </c>
       <c r="G4">
-        <v>1099</v>
+        <v>1102.723238839376</v>
       </c>
       <c r="H4">
-        <v>1257</v>
+        <v>1261.27490463378</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -484,25 +484,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1274</v>
+        <v>1281.062412258313</v>
       </c>
       <c r="C5">
-        <v>1126</v>
+        <v>1131.549665732404</v>
       </c>
       <c r="D5">
-        <v>217</v>
+        <v>219.0103028675416</v>
       </c>
       <c r="E5">
-        <v>1351</v>
+        <v>1356.706564784675</v>
       </c>
       <c r="F5">
-        <v>1275</v>
+        <v>1282.391924194888</v>
       </c>
       <c r="G5">
-        <v>1172</v>
+        <v>1176.781486762983</v>
       </c>
       <c r="H5">
-        <v>1351</v>
+        <v>1356.938493712931</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -510,25 +510,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1254</v>
+        <v>1262.312376596757</v>
       </c>
       <c r="C6">
-        <v>1119</v>
+        <v>1122.600416929733</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>99.27596812055262</v>
       </c>
       <c r="E6">
-        <v>1342</v>
+        <v>1348.444573026424</v>
       </c>
       <c r="F6">
-        <v>1257</v>
+        <v>1264.196820163211</v>
       </c>
       <c r="G6">
-        <v>1136</v>
+        <v>1140.941785076102</v>
       </c>
       <c r="H6">
-        <v>1343</v>
+        <v>1348.751454511466</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -536,25 +536,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1298</v>
+        <v>1305.139994837836</v>
       </c>
       <c r="C7">
-        <v>1173</v>
+        <v>1176.796944956915</v>
       </c>
       <c r="D7">
-        <v>183</v>
+        <v>187.2747926392082</v>
       </c>
       <c r="E7">
-        <v>1359</v>
+        <v>1364.568010954196</v>
       </c>
       <c r="F7">
-        <v>1299</v>
+        <v>1306.110061062109</v>
       </c>
       <c r="G7">
-        <v>1203</v>
+        <v>1207.976052222934</v>
       </c>
       <c r="H7">
-        <v>1359</v>
+        <v>1364.810771981189</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -562,25 +562,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1182</v>
+        <v>1187.049016695813</v>
       </c>
       <c r="C8">
-        <v>723</v>
+        <v>722.3126791818364</v>
       </c>
       <c r="D8">
-        <v>192</v>
+        <v>199.3182319901114</v>
       </c>
       <c r="E8">
-        <v>1248</v>
+        <v>1250.574057006675</v>
       </c>
       <c r="F8">
-        <v>1182</v>
+        <v>1187.12235824837</v>
       </c>
       <c r="G8">
-        <v>806</v>
+        <v>807.3842191477663</v>
       </c>
       <c r="H8">
-        <v>1248</v>
+        <v>1250.645859292783</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -588,25 +588,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1310</v>
+        <v>1317.148662192248</v>
       </c>
       <c r="C9">
-        <v>1061</v>
+        <v>1065.463844133058</v>
       </c>
       <c r="D9">
-        <v>290</v>
+        <v>288.5115740790028</v>
       </c>
       <c r="E9">
-        <v>1348</v>
+        <v>1354.716259628011</v>
       </c>
       <c r="F9">
-        <v>1311</v>
+        <v>1318.465130650536</v>
       </c>
       <c r="G9">
-        <v>1113</v>
+        <v>1118.584399760819</v>
       </c>
       <c r="H9">
-        <v>1348</v>
+        <v>1355.153956130702</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -614,25 +614,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1311</v>
+        <v>1315.913788041324</v>
       </c>
       <c r="C10">
-        <v>1154</v>
+        <v>1157.648520803099</v>
       </c>
       <c r="D10">
-        <v>479</v>
+        <v>467.6391110285813</v>
       </c>
       <c r="E10">
-        <v>1359</v>
+        <v>1364.70517786298</v>
       </c>
       <c r="F10">
-        <v>1313</v>
+        <v>1318.515521661503</v>
       </c>
       <c r="G10">
-        <v>1252</v>
+        <v>1256.002499623704</v>
       </c>
       <c r="H10">
-        <v>1360</v>
+        <v>1366.076505990439</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -640,25 +640,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1297</v>
+        <v>1302.951897844415</v>
       </c>
       <c r="C11">
-        <v>1156</v>
+        <v>1160.705684869071</v>
       </c>
       <c r="D11">
-        <v>414</v>
+        <v>403.3364748608295</v>
       </c>
       <c r="E11">
-        <v>1361</v>
+        <v>1365.677207529634</v>
       </c>
       <c r="F11">
-        <v>1299</v>
+        <v>1305.448640131307</v>
       </c>
       <c r="G11">
-        <v>1245</v>
+        <v>1248.948808275188</v>
       </c>
       <c r="H11">
-        <v>1362</v>
+        <v>1366.774754614911</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -666,25 +666,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1151</v>
+        <v>1157.343514172884</v>
       </c>
       <c r="C12">
-        <v>1169</v>
+        <v>1172.403438093525</v>
       </c>
       <c r="D12">
-        <v>114</v>
+        <v>113.2232041804238</v>
       </c>
       <c r="E12">
-        <v>1340</v>
+        <v>1344.200000400687</v>
       </c>
       <c r="F12">
-        <v>1156</v>
+        <v>1162.266216930732</v>
       </c>
       <c r="G12">
-        <v>1189</v>
+        <v>1192.728605902402</v>
       </c>
       <c r="H12">
-        <v>1341</v>
+        <v>1344.763941678255</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -692,25 +692,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1302</v>
+        <v>1308.382254672927</v>
       </c>
       <c r="C13">
-        <v>1152</v>
+        <v>1155.606495902057</v>
       </c>
       <c r="D13">
-        <v>375</v>
+        <v>362.3155122142903</v>
       </c>
       <c r="E13">
-        <v>1357</v>
+        <v>1362.354721856804</v>
       </c>
       <c r="F13">
-        <v>1305</v>
+        <v>1310.593135206027</v>
       </c>
       <c r="G13">
-        <v>1235</v>
+        <v>1237.533746002944</v>
       </c>
       <c r="H13">
-        <v>1358</v>
+        <v>1363.549160780126</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_middellaag.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_middellaag.xlsx
@@ -406,25 +406,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1157.387157691246</v>
+        <v>1157.387157691247</v>
       </c>
       <c r="C2">
-        <v>981.181658104533</v>
+        <v>981.1816581045335</v>
       </c>
       <c r="D2">
-        <v>605.862092896851</v>
+        <v>605.8620928968515</v>
       </c>
       <c r="E2">
-        <v>1292.426469196052</v>
+        <v>1292.426469196053</v>
       </c>
       <c r="F2">
-        <v>1165.712211379992</v>
+        <v>1165.712211379993</v>
       </c>
       <c r="G2">
-        <v>1157.793623994623</v>
+        <v>1157.793623994624</v>
       </c>
       <c r="H2">
-        <v>1295.177072832771</v>
+        <v>1295.177072832772</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -438,16 +438,16 @@
         <v>1001.504143663945</v>
       </c>
       <c r="D3">
-        <v>576.5620703043116</v>
+        <v>576.5620703043112</v>
       </c>
       <c r="E3">
-        <v>1316.046994716525</v>
+        <v>1316.046994716524</v>
       </c>
       <c r="F3">
-        <v>1212.959743826953</v>
+        <v>1212.959743826952</v>
       </c>
       <c r="G3">
-        <v>1167.018325727053</v>
+        <v>1167.018325727052</v>
       </c>
       <c r="H3">
         <v>1317.500688659987</v>
@@ -458,13 +458,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1063.700906389054</v>
+        <v>1063.700906389055</v>
       </c>
       <c r="C4">
         <v>1039.496240544647</v>
       </c>
       <c r="D4">
-        <v>347.2708387582935</v>
+        <v>347.2708387582942</v>
       </c>
       <c r="E4">
         <v>1258.863885985375</v>
@@ -473,10 +473,10 @@
         <v>1073.324544809446</v>
       </c>
       <c r="G4">
-        <v>1102.723238839376</v>
+        <v>1102.723238839377</v>
       </c>
       <c r="H4">
-        <v>1261.27490463378</v>
+        <v>1261.274904633781</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -490,7 +490,7 @@
         <v>1131.549665732404</v>
       </c>
       <c r="D5">
-        <v>219.0103028675416</v>
+        <v>219.0103028675418</v>
       </c>
       <c r="E5">
         <v>1356.706564784675</v>
@@ -502,7 +502,7 @@
         <v>1176.781486762983</v>
       </c>
       <c r="H5">
-        <v>1356.938493712931</v>
+        <v>1356.938493712932</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -510,25 +510,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1262.312376596757</v>
+        <v>1262.312376596758</v>
       </c>
       <c r="C6">
         <v>1122.600416929733</v>
       </c>
       <c r="D6">
-        <v>99.27596812055262</v>
+        <v>99.27596812055266</v>
       </c>
       <c r="E6">
-        <v>1348.444573026424</v>
+        <v>1348.444573026425</v>
       </c>
       <c r="F6">
-        <v>1264.196820163211</v>
+        <v>1264.196820163212</v>
       </c>
       <c r="G6">
-        <v>1140.941785076102</v>
+        <v>1140.941785076103</v>
       </c>
       <c r="H6">
-        <v>1348.751454511466</v>
+        <v>1348.751454511467</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -536,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1305.139994837836</v>
+        <v>1305.139994837837</v>
       </c>
       <c r="C7">
         <v>1176.796944956915</v>
@@ -551,10 +551,10 @@
         <v>1306.110061062109</v>
       </c>
       <c r="G7">
-        <v>1207.976052222934</v>
+        <v>1207.976052222935</v>
       </c>
       <c r="H7">
-        <v>1364.810771981189</v>
+        <v>1364.81077198119</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -565,7 +565,7 @@
         <v>1187.049016695813</v>
       </c>
       <c r="C8">
-        <v>722.3126791818364</v>
+        <v>722.3126791818363</v>
       </c>
       <c r="D8">
         <v>199.3182319901114</v>
@@ -574,7 +574,7 @@
         <v>1250.574057006675</v>
       </c>
       <c r="F8">
-        <v>1187.12235824837</v>
+        <v>1187.122358248369</v>
       </c>
       <c r="G8">
         <v>807.3842191477663</v>
@@ -588,25 +588,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1317.148662192248</v>
+        <v>1317.148662192249</v>
       </c>
       <c r="C9">
         <v>1065.463844133058</v>
       </c>
       <c r="D9">
-        <v>288.5115740790028</v>
+        <v>288.5115740790033</v>
       </c>
       <c r="E9">
-        <v>1354.716259628011</v>
+        <v>1354.716259628012</v>
       </c>
       <c r="F9">
-        <v>1318.465130650536</v>
+        <v>1318.465130650537</v>
       </c>
       <c r="G9">
         <v>1118.584399760819</v>
       </c>
       <c r="H9">
-        <v>1355.153956130702</v>
+        <v>1355.153956130703</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -614,19 +614,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1315.913788041324</v>
+        <v>1315.913788041323</v>
       </c>
       <c r="C10">
-        <v>1157.648520803099</v>
+        <v>1157.648520803098</v>
       </c>
       <c r="D10">
-        <v>467.6391110285813</v>
+        <v>467.6391110285811</v>
       </c>
       <c r="E10">
-        <v>1364.70517786298</v>
+        <v>1364.705177862979</v>
       </c>
       <c r="F10">
-        <v>1318.515521661503</v>
+        <v>1318.515521661502</v>
       </c>
       <c r="G10">
         <v>1256.002499623704</v>
@@ -643,13 +643,13 @@
         <v>1302.951897844415</v>
       </c>
       <c r="C11">
-        <v>1160.705684869071</v>
+        <v>1160.705684869072</v>
       </c>
       <c r="D11">
-        <v>403.3364748608295</v>
+        <v>403.3364748608297</v>
       </c>
       <c r="E11">
-        <v>1365.677207529634</v>
+        <v>1365.677207529635</v>
       </c>
       <c r="F11">
         <v>1305.448640131307</v>
@@ -672,7 +672,7 @@
         <v>1172.403438093525</v>
       </c>
       <c r="D12">
-        <v>113.2232041804238</v>
+        <v>113.223204180424</v>
       </c>
       <c r="E12">
         <v>1344.200000400687</v>
@@ -692,13 +692,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1308.382254672927</v>
+        <v>1308.382254672926</v>
       </c>
       <c r="C13">
-        <v>1155.606495902057</v>
+        <v>1155.606495902056</v>
       </c>
       <c r="D13">
-        <v>362.3155122142903</v>
+        <v>362.3155122142901</v>
       </c>
       <c r="E13">
         <v>1362.354721856804</v>
@@ -707,7 +707,7 @@
         <v>1310.593135206027</v>
       </c>
       <c r="G13">
-        <v>1237.533746002944</v>
+        <v>1237.533746002943</v>
       </c>
       <c r="H13">
         <v>1363.549160780126</v>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_middellaag.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_middellaag.xlsx
@@ -406,25 +406,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1157.387157691247</v>
+        <v>1157</v>
       </c>
       <c r="C2">
-        <v>981.1816581045335</v>
+        <v>981</v>
       </c>
       <c r="D2">
-        <v>605.8620928968515</v>
+        <v>606</v>
       </c>
       <c r="E2">
-        <v>1292.426469196053</v>
+        <v>1292</v>
       </c>
       <c r="F2">
-        <v>1165.712211379993</v>
+        <v>1166</v>
       </c>
       <c r="G2">
-        <v>1157.793623994624</v>
+        <v>1158</v>
       </c>
       <c r="H2">
-        <v>1295.177072832772</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -432,25 +432,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1208.207581561454</v>
+        <v>1208</v>
       </c>
       <c r="C3">
-        <v>1001.504143663945</v>
+        <v>1002</v>
       </c>
       <c r="D3">
-        <v>576.5620703043112</v>
+        <v>577</v>
       </c>
       <c r="E3">
-        <v>1316.046994716524</v>
+        <v>1316</v>
       </c>
       <c r="F3">
-        <v>1212.959743826952</v>
+        <v>1213</v>
       </c>
       <c r="G3">
-        <v>1167.018325727052</v>
+        <v>1167</v>
       </c>
       <c r="H3">
-        <v>1317.500688659987</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -458,25 +458,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1063.700906389055</v>
+        <v>1064</v>
       </c>
       <c r="C4">
-        <v>1039.496240544647</v>
+        <v>1039</v>
       </c>
       <c r="D4">
-        <v>347.2708387582942</v>
+        <v>347</v>
       </c>
       <c r="E4">
-        <v>1258.863885985375</v>
+        <v>1259</v>
       </c>
       <c r="F4">
-        <v>1073.324544809446</v>
+        <v>1073</v>
       </c>
       <c r="G4">
-        <v>1102.723238839377</v>
+        <v>1103</v>
       </c>
       <c r="H4">
-        <v>1261.274904633781</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -484,25 +484,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1281.062412258313</v>
+        <v>1281</v>
       </c>
       <c r="C5">
-        <v>1131.549665732404</v>
+        <v>1132</v>
       </c>
       <c r="D5">
-        <v>219.0103028675418</v>
+        <v>219</v>
       </c>
       <c r="E5">
-        <v>1356.706564784675</v>
+        <v>1357</v>
       </c>
       <c r="F5">
-        <v>1282.391924194888</v>
+        <v>1282</v>
       </c>
       <c r="G5">
-        <v>1176.781486762983</v>
+        <v>1177</v>
       </c>
       <c r="H5">
-        <v>1356.938493712932</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -510,25 +510,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1262.312376596758</v>
+        <v>1262</v>
       </c>
       <c r="C6">
-        <v>1122.600416929733</v>
+        <v>1123</v>
       </c>
       <c r="D6">
-        <v>99.27596812055266</v>
+        <v>99</v>
       </c>
       <c r="E6">
-        <v>1348.444573026425</v>
+        <v>1348</v>
       </c>
       <c r="F6">
-        <v>1264.196820163212</v>
+        <v>1264</v>
       </c>
       <c r="G6">
-        <v>1140.941785076103</v>
+        <v>1141</v>
       </c>
       <c r="H6">
-        <v>1348.751454511467</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -536,25 +536,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1305.139994837837</v>
+        <v>1305</v>
       </c>
       <c r="C7">
-        <v>1176.796944956915</v>
+        <v>1177</v>
       </c>
       <c r="D7">
-        <v>187.2747926392082</v>
+        <v>187</v>
       </c>
       <c r="E7">
-        <v>1364.568010954196</v>
+        <v>1365</v>
       </c>
       <c r="F7">
-        <v>1306.110061062109</v>
+        <v>1306</v>
       </c>
       <c r="G7">
-        <v>1207.976052222935</v>
+        <v>1208</v>
       </c>
       <c r="H7">
-        <v>1364.81077198119</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -562,25 +562,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1187.049016695813</v>
+        <v>1187</v>
       </c>
       <c r="C8">
-        <v>722.3126791818363</v>
+        <v>722</v>
       </c>
       <c r="D8">
-        <v>199.3182319901114</v>
+        <v>199</v>
       </c>
       <c r="E8">
-        <v>1250.574057006675</v>
+        <v>1251</v>
       </c>
       <c r="F8">
-        <v>1187.122358248369</v>
+        <v>1187</v>
       </c>
       <c r="G8">
-        <v>807.3842191477663</v>
+        <v>807</v>
       </c>
       <c r="H8">
-        <v>1250.645859292783</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -588,25 +588,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1317.148662192249</v>
+        <v>1317</v>
       </c>
       <c r="C9">
-        <v>1065.463844133058</v>
+        <v>1065</v>
       </c>
       <c r="D9">
-        <v>288.5115740790033</v>
+        <v>289</v>
       </c>
       <c r="E9">
-        <v>1354.716259628012</v>
+        <v>1355</v>
       </c>
       <c r="F9">
-        <v>1318.465130650537</v>
+        <v>1318</v>
       </c>
       <c r="G9">
-        <v>1118.584399760819</v>
+        <v>1119</v>
       </c>
       <c r="H9">
-        <v>1355.153956130703</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -614,25 +614,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1315.913788041323</v>
+        <v>1316</v>
       </c>
       <c r="C10">
-        <v>1157.648520803098</v>
+        <v>1158</v>
       </c>
       <c r="D10">
-        <v>467.6391110285811</v>
+        <v>468</v>
       </c>
       <c r="E10">
-        <v>1364.705177862979</v>
+        <v>1365</v>
       </c>
       <c r="F10">
-        <v>1318.515521661502</v>
+        <v>1319</v>
       </c>
       <c r="G10">
-        <v>1256.002499623704</v>
+        <v>1256</v>
       </c>
       <c r="H10">
-        <v>1366.076505990439</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -640,25 +640,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1302.951897844415</v>
+        <v>1303</v>
       </c>
       <c r="C11">
-        <v>1160.705684869072</v>
+        <v>1161</v>
       </c>
       <c r="D11">
-        <v>403.3364748608297</v>
+        <v>403</v>
       </c>
       <c r="E11">
-        <v>1365.677207529635</v>
+        <v>1366</v>
       </c>
       <c r="F11">
-        <v>1305.448640131307</v>
+        <v>1305</v>
       </c>
       <c r="G11">
-        <v>1248.948808275188</v>
+        <v>1249</v>
       </c>
       <c r="H11">
-        <v>1366.774754614911</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -666,25 +666,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1157.343514172884</v>
+        <v>1157</v>
       </c>
       <c r="C12">
-        <v>1172.403438093525</v>
+        <v>1172</v>
       </c>
       <c r="D12">
-        <v>113.223204180424</v>
+        <v>113</v>
       </c>
       <c r="E12">
-        <v>1344.200000400687</v>
+        <v>1344</v>
       </c>
       <c r="F12">
-        <v>1162.266216930732</v>
+        <v>1162</v>
       </c>
       <c r="G12">
-        <v>1192.728605902402</v>
+        <v>1193</v>
       </c>
       <c r="H12">
-        <v>1344.763941678255</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -692,25 +692,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1308.382254672926</v>
+        <v>1308</v>
       </c>
       <c r="C13">
-        <v>1155.606495902056</v>
+        <v>1156</v>
       </c>
       <c r="D13">
-        <v>362.3155122142901</v>
+        <v>362</v>
       </c>
       <c r="E13">
-        <v>1362.354721856804</v>
+        <v>1362</v>
       </c>
       <c r="F13">
-        <v>1310.593135206027</v>
+        <v>1311</v>
       </c>
       <c r="G13">
-        <v>1237.533746002943</v>
+        <v>1238</v>
       </c>
       <c r="H13">
-        <v>1363.549160780126</v>
+        <v>1364</v>
       </c>
     </row>
   </sheetData>
